--- a/cypress/fixtures/test-data.xlsx
+++ b/cypress/fixtures/test-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cy-qa-team-act\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B44C289-7CE8-4964-A645-13A6F3C87B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B68A64-AD3E-4C6D-A273-418E4AA41158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF5ED8C3-49E6-402F-937C-4F93238D113B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF5ED8C3-49E6-402F-937C-4F93238D113B}"/>
   </bookViews>
   <sheets>
     <sheet name="item-class-data" sheetId="1" r:id="rId1"/>
+    <sheet name="void-refund-reasons" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>itemClass</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t>Beverages</t>
+  </si>
+  <si>
+    <t>voidReasons</t>
+  </si>
+  <si>
+    <t>wrong punch</t>
+  </si>
+  <si>
+    <t>Incorrect Order Entry</t>
   </si>
 </sst>
 </file>
@@ -421,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DAA289-429B-48F3-88D4-CED066580891}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,4 +460,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FE1BBB-C9F5-4A41-A38B-3404D6E1768D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>